--- a/PMP/第六版重要產出.xlsx
+++ b/PMP/第六版重要產出.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CU3178\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="第六版重要產出 (空白)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="第六版重要產出" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="工作表2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="工作表3" sheetId="4" r:id="rId7"/>
+    <sheet name="第六版重要產出 (空白)" sheetId="1" r:id="rId1"/>
+    <sheet name="第六版重要產出" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgVplseAkweEzeI9gDPQnI4IuG7zA=="/>
@@ -29,25 +37,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>數量</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>)</t>
     </r>
@@ -58,25 +68,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>數量</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>)</t>
     </r>
@@ -90,25 +102,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>數量</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>)</t>
     </r>
@@ -119,25 +133,27 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>數量</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>)</t>
     </r>
@@ -151,9 +167,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -164,9 +180,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -183,9 +199,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -205,9 +221,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -218,9 +234,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -234,9 +250,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -250,9 +266,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -263,9 +279,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -282,9 +298,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -304,9 +320,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -317,9 +333,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -339,9 +355,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -358,9 +374,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -374,9 +390,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -387,9 +403,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -403,9 +419,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -419,9 +435,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -432,9 +448,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -448,9 +464,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -461,9 +477,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -477,9 +493,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -496,9 +512,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -509,9 +525,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -522,9 +538,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -535,9 +551,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -548,9 +564,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -564,9 +580,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -583,9 +599,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -599,9 +615,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -615,9 +631,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -628,9 +644,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -650,9 +666,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -666,9 +682,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -679,9 +695,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -695,9 +711,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -708,9 +724,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -721,9 +737,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>WBS (1)</t>
     </r>
@@ -737,9 +753,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -750,9 +766,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -766,9 +782,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -779,9 +795,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -792,9 +808,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -805,9 +821,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>WBS (1)</t>
     </r>
@@ -818,9 +834,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -831,9 +847,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -844,9 +860,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -857,9 +873,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -870,9 +886,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -883,9 +899,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -899,9 +915,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -915,9 +931,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -928,9 +944,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -944,9 +960,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -963,9 +979,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -982,9 +998,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -995,9 +1011,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1011,9 +1027,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1027,9 +1043,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1040,9 +1056,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1053,9 +1069,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1069,9 +1085,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1082,9 +1098,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -1095,9 +1111,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (5)</t>
     </r>
@@ -1114,9 +1130,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (8)</t>
     </r>
@@ -1130,9 +1146,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1152,33 +1168,37 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>招</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="新細明體"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>標文件</t>
     </r>
@@ -1195,9 +1215,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1208,9 +1228,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1221,9 +1241,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1237,9 +1257,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1250,9 +1270,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1266,9 +1286,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1288,9 +1308,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (5)</t>
     </r>
@@ -1301,9 +1321,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1317,9 +1337,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1333,9 +1353,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1346,9 +1366,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (8)</t>
     </r>
@@ -1365,9 +1385,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1381,9 +1401,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1400,9 +1420,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1419,9 +1439,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1432,9 +1452,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1454,9 +1474,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1470,9 +1490,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1486,9 +1506,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1502,9 +1522,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1515,9 +1535,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1531,9 +1551,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1544,9 +1564,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1557,9 +1577,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -1573,9 +1593,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1586,9 +1606,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1602,9 +1622,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1615,9 +1635,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1628,9 +1648,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1641,9 +1661,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (3)</t>
     </r>
@@ -1654,9 +1674,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (1)</t>
     </r>
@@ -1667,9 +1687,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (2)</t>
     </r>
@@ -1680,9 +1700,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Times New Roman"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> (4)</t>
     </r>
@@ -1691,28 +1711,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1720,11 +1765,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1738,6 +1789,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1749,6 +1801,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1757,6 +1811,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1765,156 +1822,182 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="255" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="255" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2104,29 +2187,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.11"/>
-    <col customWidth="1" min="2" max="2" width="18.33"/>
-    <col customWidth="1" min="3" max="3" width="25.11"/>
-    <col customWidth="1" min="4" max="4" width="8.11"/>
-    <col customWidth="1" min="5" max="5" width="20.44"/>
-    <col customWidth="1" min="6" max="6" width="24.44"/>
-    <col customWidth="1" min="7" max="26" width="6.78"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2146,157 +2232,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2304,413 +2390,414 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" ht="18.0" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="21" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11" t="s">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="21" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="18.0" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" ht="18.0" customHeight="1">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" ht="18.0" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3" t="s">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" ht="18.0" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" ht="18.0" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="5"/>
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10" t="s">
         <v>134</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" ht="18.0" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" ht="18.0" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" ht="18.0" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" ht="18.0" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" ht="18.0" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" ht="18.0" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" ht="18.0" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" ht="18.0" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" ht="18.0" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" ht="18.0" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" ht="18.0" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" ht="18.0" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" ht="18.0" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" ht="18.0" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8" t="s">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" ht="18.0" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="3" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="10" t="s">
         <v>177</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" ht="18.0" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+    <row r="49" spans="1:6" ht="18" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" ht="18.0" customHeight="1">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:6" ht="18" customHeight="1">
+      <c r="A50" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="10" t="s">
         <v>179</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" ht="18.0" customHeight="1">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:6" ht="18" customHeight="1">
+      <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" ht="18.0" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:6" ht="18" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" ht="18.0" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="10" t="s">
         <v>182</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" ht="18.0" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+    <row r="54" spans="1:6" ht="18" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" ht="18.0" customHeight="1">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:6" ht="18" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" ht="18.0" customHeight="1">
+    <row r="56" spans="1:6" ht="18" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -3649,37 +3736,6 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D16:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:C56"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B39:B41"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="D34:D47"/>
     <mergeCell ref="D48:D56"/>
@@ -3693,34 +3749,65 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E34:E41"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:C56"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D16:D27"/>
+    <mergeCell ref="D28:D33"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.11"/>
-    <col customWidth="1" min="2" max="2" width="20.44"/>
-    <col customWidth="1" min="3" max="3" width="23.33"/>
-    <col customWidth="1" min="4" max="4" width="8.11"/>
-    <col customWidth="1" min="5" max="5" width="20.44"/>
-    <col customWidth="1" min="6" max="6" width="19.56"/>
-    <col customWidth="1" min="7" max="26" width="6.78"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,171 +3827,171 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
@@ -3912,43 +3999,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3958,201 +4045,201 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="18.0" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="21" t="s">
         <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" ht="18.0" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9" t="s">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="21" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="18.0" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="18.0" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="18.0" customHeight="1">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" ht="18.0" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" ht="18.0" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" ht="18.0" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="18.0" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2" t="s">
         <v>105</v>
       </c>
@@ -4160,15 +4247,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" ht="18.0" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="2" t="s">
         <v>109</v>
       </c>
@@ -4176,254 +4263,254 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="18.0" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" ht="18.0" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" ht="18.0" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8" t="s">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" ht="18.0" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="9" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" ht="18.0" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="9" t="s">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="9" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" ht="18.0" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9" t="s">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="9" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="18.0" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="12" t="s">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="9" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" ht="18.0" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="18.0" customHeight="1">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="9" t="s">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="9" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" ht="18.0" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" ht="18.0" customHeight="1">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="A42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" ht="18.0" customHeight="1">
-      <c r="A43" s="5"/>
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="9" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" ht="18.0" customHeight="1">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9" t="s">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" ht="18.0" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" ht="18.0" customHeight="1">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="9" t="s">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="9" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" ht="18.0" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="8" t="s">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="9" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="18.0" customHeight="1">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" ht="18.0" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9" t="s">
+    <row r="49" spans="1:6" ht="18" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" ht="18.0" customHeight="1">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:6" ht="18" customHeight="1">
+      <c r="A50" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4432,93 +4519,94 @@
       <c r="C50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="10" t="s">
         <v>162</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" ht="18.0" customHeight="1">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:6" ht="18" customHeight="1">
+      <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" ht="18.0" customHeight="1">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
+    <row r="52" spans="1:6" ht="18" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" ht="18.0" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="10" t="s">
         <v>171</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" ht="18.0" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+    <row r="54" spans="1:6" ht="18" customHeight="1">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" ht="18.0" customHeight="1">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:6" ht="18" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" ht="18.0" customHeight="1">
+    <row r="56" spans="1:6" ht="18" customHeight="1">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="16.5" customHeight="1"/>
-    <row r="61" ht="16.5" customHeight="1"/>
-    <row r="62" ht="16.5" customHeight="1"/>
-    <row r="63" ht="16.5" customHeight="1"/>
-    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="57" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="58" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="63" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="64" spans="1:6" ht="16.5" customHeight="1"/>
     <row r="65" ht="16.5" customHeight="1"/>
     <row r="66" ht="16.5" customHeight="1"/>
     <row r="67" ht="16.5" customHeight="1"/>
@@ -5457,12 +5545,28 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E34:E41"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="A54:C56"/>
@@ -5474,52 +5578,33 @@
     <mergeCell ref="D34:D47"/>
     <mergeCell ref="D48:D56"/>
     <mergeCell ref="D16:D27"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E34:E41"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E47"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.3937007874015748" footer="0.0" header="0.0" left="0.11811023622047245" right="0.11811023622047245" top="0.3937007874015748"/>
-  <pageSetup fitToWidth="0" paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="6.78"/>
+    <col min="1" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1"/>
@@ -6523,24 +6608,21 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="6.78"/>
+    <col min="1" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1"/>
@@ -7544,9 +7626,8 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>